--- a/QA/testcases/CPR/Provider/Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Provider/Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -20,6 +20,7 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350">
   <si>
     <t>Step No</t>
   </si>
@@ -658,6 +659,48 @@
   </si>
   <si>
     <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
   </si>
   <si>
     <t>SELF_LASTPAGE</t>
@@ -1049,10 +1092,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1103,18 +1146,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1126,8 +1169,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1142,29 +1194,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,40 +1252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,13 +1269,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1260,31 +1303,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor theme="4" tint="0.799920651875362"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,55 +1357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,7 +1375,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,13 +1435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,25 +1453,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,24 +1483,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1504,17 +1559,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,15 +1574,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1548,6 +1601,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,17 +1644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1601,10 +1658,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1622,134 +1688,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1767,6 +1833,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,6 +1910,19 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2239,10 +2324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106:H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2372,7 +2457,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -2514,7 +2599,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -4497,456 +4582,552 @@
       <c r="H105" s="11"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="11">
-        <v>105</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="9" t="s">
+      <c r="A106" s="11"/>
+      <c r="B106" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="11"/>
+      <c r="B107" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19">
+        <v>5</v>
+      </c>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="21"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="11"/>
+      <c r="B108" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H108" s="22"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="11"/>
+      <c r="B109" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D106" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H106" s="9"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="11">
-        <v>106</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11">
-        <v>10</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="11"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="11">
-        <v>107</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="9" t="s">
+      <c r="D109" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G109" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="H109" s="21"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="11"/>
+      <c r="B110" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H108" s="9"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="11">
-        <v>108</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11">
-        <v>5</v>
-      </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="11"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="11">
-        <v>109</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H110" s="9"/>
+      <c r="D110" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="11">
-        <v>110</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11">
-        <v>10</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="11">
-        <v>111</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H112" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11">
+        <v>10</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="11"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="11">
-        <v>112</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11">
-        <v>1</v>
-      </c>
-      <c r="F113" s="11"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="11">
-        <v>113</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11">
+        <v>5</v>
+      </c>
+      <c r="F114" s="11"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="11"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="11">
-        <v>114</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11">
-        <v>1</v>
-      </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H115" s="9"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="11">
-        <v>115</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H116" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11">
+        <v>10</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="11"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="11">
-        <v>116</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11">
-        <v>3</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="H117" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="11">
-        <v>117</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H118" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11">
+        <v>1</v>
+      </c>
+      <c r="F118" s="11"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="11"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="11">
-        <v>118</v>
-      </c>
-      <c r="B119" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="H119" s="11"/>
+      <c r="D119" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="9"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="11">
-        <v>119</v>
-      </c>
-      <c r="B120" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="9">
-        <v>2</v>
-      </c>
-      <c r="F120" s="9"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="9"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11">
+        <v>1</v>
+      </c>
+      <c r="F120" s="11"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="11"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="11">
-        <v>120</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G121" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="H121" s="11"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="11">
-        <v>121</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F122" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11">
+        <v>3</v>
+      </c>
+      <c r="F122" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="G122" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H122" s="9"/>
+      <c r="H122" s="11"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="11">
-        <v>122</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E123" s="11">
-        <v>9889656446</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H123" s="11"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H123" s="9"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="11">
-        <v>123</v>
-      </c>
-      <c r="B124" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G124" s="7" t="s">
+      <c r="C124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H124" s="9"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H124" s="11"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="11">
-        <v>124</v>
-      </c>
-      <c r="B125" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11">
-        <v>10</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H125" s="11"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="9">
+        <v>2</v>
+      </c>
+      <c r="F125" s="9"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="11">
-        <v>125</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G126" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="H126" s="9"/>
+      <c r="E126" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H126" s="11"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="11">
+        <v>121</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H127" s="9"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="11">
+        <v>122</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E128" s="11">
+        <v>9889656446</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H128" s="11"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="11">
+        <v>123</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H129" s="9"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="11">
+        <v>124</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11">
+        <v>10</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H130" s="11"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="11">
+        <v>125</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H131" s="9"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="11">
         <v>126</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B132" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11">
         <v>5</v>
       </c>
-      <c r="F127" s="11"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B45 B46 B47 B48 B49 B50 B62 B66 B67 B74 B90 B91 B97 B98 B108 B109 B117 B118 B16:B31 B32:B35 B36:B41 B43:B44 B51:B52 B53:B61 B63:B65 B68:B69 B76:B89 B92:B93 B94:B96 B99:B100 B101:B105 B106:B107 B110:B111 B112:B115 B120:B125 B126:B127">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B45 B46 B47 B48 B49 B50 B62 B66 B67 B74 B90 B91 B97 B98 B113 B114 B122 B123 B16:B31 B32:B35 B36:B41 B43:B44 B51:B52 B53:B61 B63:B65 B68:B69 B76:B89 B92:B93 B94:B96 B99:B100 B101:B105 B111:B112 B115:B116 B117:B120 B125:B130 B131:B132">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -4958,7 +5139,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B13 B14:B15 B70:B72 C7:C9 C14:C15 C70:C72">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 C43 C46 C64 C68 C92 C95 C99 C110 C27:C31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 C43 C46 C64 C68 C92 C95 C99 C115 C27:C31">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42 C42">
@@ -4975,6 +5156,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C26">
       <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106:C110">
+      <formula1>[10]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5004,7 +5188,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5012,20 +5196,20 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5036,20 +5220,20 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -5057,42 +5241,42 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -5107,12 +5291,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5122,45 +5306,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5170,7 +5354,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5180,152 +5364,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5335,37 +5519,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -5375,169 +5559,169 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="3:3">

--- a/QA/testcases/CPR/Provider/Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Provider/Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -2326,7 +2326,7 @@
   <sheetPr/>
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
       <selection activeCell="B106" sqref="B106:H110"/>
     </sheetView>
   </sheetViews>
@@ -4582,7 +4582,9 @@
       <c r="H105" s="11"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="11"/>
+      <c r="A106" s="11">
+        <v>105</v>
+      </c>
       <c r="B106" s="17" t="s">
         <v>46</v>
       </c>
@@ -4604,7 +4606,9 @@
       <c r="H106" s="18"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="11"/>
+      <c r="A107" s="11">
+        <v>106</v>
+      </c>
       <c r="B107" s="19" t="s">
         <v>11</v>
       </c>
@@ -4618,7 +4622,9 @@
       <c r="H107" s="21"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="11"/>
+      <c r="A108" s="11">
+        <v>107</v>
+      </c>
       <c r="B108" s="19" t="s">
         <v>156</v>
       </c>
@@ -4634,7 +4640,9 @@
       <c r="H108" s="22"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="11"/>
+      <c r="A109" s="11">
+        <v>108</v>
+      </c>
       <c r="B109" s="20" t="s">
         <v>46</v>
       </c>
@@ -4656,7 +4664,9 @@
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="11"/>
+      <c r="A110" s="11">
+        <v>109</v>
+      </c>
       <c r="B110" s="19" t="s">
         <v>46</v>
       </c>
@@ -4679,7 +4689,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="11">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>17</v>
@@ -4701,7 +4711,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="11">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>11</v>
@@ -4721,7 +4731,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="11">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>17</v>
@@ -4743,7 +4753,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="11">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>11</v>
@@ -4759,7 +4769,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="11">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>17</v>
@@ -4781,7 +4791,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="11">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>11</v>
@@ -4801,7 +4811,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="11">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>17</v>
@@ -4823,7 +4833,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="11">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>11</v>
@@ -4839,7 +4849,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="11">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>17</v>
@@ -4857,7 +4867,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="11">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>11</v>
@@ -4873,7 +4883,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="11">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>17</v>
@@ -4895,7 +4905,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="11">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>11</v>
@@ -4915,7 +4925,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="11">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>17</v>
@@ -4937,7 +4947,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="11">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>17</v>
@@ -4959,7 +4969,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="11">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>11</v>
@@ -4975,7 +4985,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="11">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>64</v>
@@ -4999,7 +5009,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="11">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>64</v>
@@ -5023,7 +5033,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="11">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>46</v>
@@ -5047,7 +5057,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="11">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>17</v>
@@ -5069,7 +5079,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="11">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>11</v>
@@ -5089,7 +5099,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="11">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>17</v>
@@ -5111,7 +5121,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="11">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>11</v>
